--- a/templates/AutomationOrg/AR.xlsx
+++ b/templates/AutomationOrg/AR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_Automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3258A391-D5BF-4D67-96EA-8404B4323D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0506DC-2327-410F-A1F2-B8B48EEC277B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1020" windowWidth="29040" windowHeight="15840" tabRatio="761" firstSheet="4" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-495" yWindow="75" windowWidth="20430" windowHeight="7875" tabRatio="761" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="103">
   <si>
     <t>API Mode</t>
   </si>
@@ -312,9 +312,6 @@
   </si>
   <si>
     <t>Automation5501-5 (Misc)</t>
-  </si>
-  <si>
-    <t>ComapnyID</t>
   </si>
   <si>
     <t>aBb5f0000004JfX</t>
@@ -828,7 +825,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +846,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
@@ -861,7 +858,7 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
         <v>39</v>
@@ -881,7 +878,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>450</v>
@@ -893,7 +890,7 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>40</v>
@@ -919,7 +916,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,13 +929,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
         <v>39</v>
@@ -947,19 +944,19 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
@@ -970,22 +967,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2">
         <v>450</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -994,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J2">
         <v>9</v>
@@ -1016,7 +1013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEE6E911-31A5-440C-882A-670D99BCCC80}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1034,13 +1031,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D1" t="s">
         <v>39</v>
@@ -1049,19 +1046,19 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
@@ -1072,22 +1069,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2">
         <v>450</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1096,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J2">
         <v>9</v>
@@ -1116,20 +1113,20 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D908F63-2316-4814-8934-7E6571A2EA9A}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1143,19 +1140,22 @@
         <v>26</v>
       </c>
       <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>77</v>
       </c>
@@ -1168,16 +1168,19 @@
       <c r="D2">
         <v>100</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>41</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>450</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2239,7 +2242,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,7 +2535,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/templates/AutomationOrg/AR.xlsx
+++ b/templates/AutomationOrg/AR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_Automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0506DC-2327-410F-A1F2-B8B48EEC277B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB59C586-F820-490B-8F7D-548308BA1561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-495" yWindow="75" windowWidth="20430" windowHeight="7875" tabRatio="761" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21795" yWindow="1365" windowWidth="27270" windowHeight="10890" tabRatio="761" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="100">
   <si>
     <t>API Mode</t>
   </si>
@@ -203,9 +203,6 @@
     <t>Debit Amount</t>
   </si>
   <si>
-    <t>Account</t>
-  </si>
-  <si>
     <t>Posting Type</t>
   </si>
   <si>
@@ -233,21 +230,9 @@
     <t>ExpectedGLTXNCount</t>
   </si>
   <si>
-    <t>a5B41000000PRNXEA4</t>
-  </si>
-  <si>
     <t>Invoice</t>
   </si>
   <si>
-    <t>a9h4100000005tC</t>
-  </si>
-  <si>
-    <t>a9g410000004LBs</t>
-  </si>
-  <si>
-    <t>a9S41000000Gnq3</t>
-  </si>
-  <si>
     <t>Red Widgets</t>
   </si>
   <si>
@@ -269,15 +254,9 @@
     <t>Credit Memo</t>
   </si>
   <si>
-    <t>a9S41000000GntC</t>
-  </si>
-  <si>
     <t>Unapplied Cash</t>
   </si>
   <si>
-    <t>a5B410000004My9EAE</t>
-  </si>
-  <si>
     <t>Pending</t>
   </si>
   <si>
@@ -357,13 +336,25 @@
   </si>
   <si>
     <t>a8S5f0000004NwM</t>
+  </si>
+  <si>
+    <t>GLAccount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  aBE5f000000kKQk</t>
+  </si>
+  <si>
+    <t>aBE5f000000kKS5</t>
+  </si>
+  <si>
+    <t>aBd5f000000oYg0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,6 +386,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -738,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -846,7 +843,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
@@ -858,7 +855,7 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s">
         <v>39</v>
@@ -878,7 +875,7 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C2">
         <v>450</v>
@@ -890,7 +887,7 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>40</v>
@@ -929,13 +926,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
         <v>39</v>
@@ -944,19 +941,19 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
@@ -967,31 +964,31 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>450</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="F2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="J2">
         <v>9</v>
@@ -1031,13 +1028,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
         <v>39</v>
@@ -1046,19 +1043,19 @@
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="K1" t="s">
         <v>26</v>
@@ -1069,31 +1066,31 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B2">
         <v>450</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="F2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="J2">
         <v>9</v>
@@ -1115,7 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D908F63-2316-4814-8934-7E6571A2EA9A}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1140,7 +1137,7 @@
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
         <v>39</v>
@@ -1157,7 +1154,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B2">
         <v>450</v>
@@ -1169,10 +1166,10 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
         <v>41</v>
@@ -1194,11 +1191,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3114FEA7-B434-48B1-B4F6-7B4F3BE8673D}">
   <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1229,48 +1244,48 @@
         <v>50</v>
       </c>
       <c r="J1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>55</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>56</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>58</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>59</v>
       </c>
-      <c r="S1" t="s">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
-      </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1285,48 +1300,48 @@
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K2">
         <v>651</v>
       </c>
       <c r="L2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2">
+        <v>500</v>
+      </c>
+      <c r="R2">
+        <v>500</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
         <v>66</v>
       </c>
-      <c r="M2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2">
-        <v>500</v>
-      </c>
-      <c r="R2">
-        <v>500</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1341,48 +1356,48 @@
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K3">
         <v>601</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3">
+        <v>500</v>
+      </c>
+      <c r="R3">
+        <v>500</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
         <v>67</v>
       </c>
-      <c r="N3" t="s">
-        <v>68</v>
-      </c>
-      <c r="O3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q3">
-        <v>500</v>
-      </c>
-      <c r="R3">
-        <v>500</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>72</v>
-      </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1397,25 +1412,25 @@
         <v>500</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K4">
         <v>611</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q4">
         <v>-500</v>
@@ -1428,17 +1443,17 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>61</v>
+      <c r="A5" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1453,25 +1468,25 @@
         <v>500</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K5">
         <v>613</v>
       </c>
       <c r="L5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q5">
         <v>-500</v>
@@ -1484,17 +1499,17 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>75</v>
+      <c r="A6" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1509,25 +1524,25 @@
         <v>500</v>
       </c>
       <c r="J6" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K6">
         <v>651</v>
       </c>
       <c r="L6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q6">
         <v>50</v>
@@ -1540,17 +1555,17 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>75</v>
+      <c r="A7" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1565,25 +1580,25 @@
         <v>500</v>
       </c>
       <c r="J7" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K7">
         <v>601</v>
       </c>
       <c r="L7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q7">
         <v>50</v>
@@ -1596,17 +1611,17 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>75</v>
+      <c r="A8" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1621,25 +1636,25 @@
         <v>500</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K8">
         <v>611</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N8" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q8">
         <v>-50</v>
@@ -1652,17 +1667,17 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>75</v>
+      <c r="A9" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1677,25 +1692,25 @@
         <v>500</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>613</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q9">
         <v>-50</v>
@@ -1708,17 +1723,17 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>61</v>
+      <c r="A10" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -1733,25 +1748,25 @@
         <v>500</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K10">
         <v>651</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O10" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" t="s">
         <v>69</v>
-      </c>
-      <c r="P10" t="s">
-        <v>76</v>
       </c>
       <c r="Q10">
         <v>500</v>
@@ -1764,17 +1779,17 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>61</v>
+      <c r="A11" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -1789,25 +1804,25 @@
         <v>500</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K11">
         <v>601</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O11" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" t="s">
         <v>69</v>
-      </c>
-      <c r="P11" t="s">
-        <v>76</v>
       </c>
       <c r="Q11">
         <v>500</v>
@@ -1820,17 +1835,17 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>61</v>
+      <c r="A12" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -1845,25 +1860,25 @@
         <v>500</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K12">
         <v>611</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" t="s">
         <v>69</v>
-      </c>
-      <c r="P12" t="s">
-        <v>76</v>
       </c>
       <c r="Q12">
         <v>-500</v>
@@ -1876,17 +1891,17 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>61</v>
+      <c r="A13" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -1901,25 +1916,25 @@
         <v>500</v>
       </c>
       <c r="J13" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K13">
         <v>613</v>
       </c>
       <c r="L13" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" t="s">
         <v>69</v>
-      </c>
-      <c r="P13" t="s">
-        <v>76</v>
       </c>
       <c r="Q13">
         <v>-500</v>
@@ -1932,17 +1947,17 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>75</v>
+      <c r="A14" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -1957,25 +1972,25 @@
         <v>500</v>
       </c>
       <c r="J14" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K14">
         <v>651</v>
       </c>
       <c r="L14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" t="s">
         <v>69</v>
-      </c>
-      <c r="P14" t="s">
-        <v>76</v>
       </c>
       <c r="Q14">
         <v>50</v>
@@ -1988,17 +2003,17 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>75</v>
+      <c r="A15" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -2013,25 +2028,25 @@
         <v>500</v>
       </c>
       <c r="J15" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="K15">
         <v>601</v>
       </c>
       <c r="L15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" t="s">
         <v>69</v>
-      </c>
-      <c r="P15" t="s">
-        <v>76</v>
       </c>
       <c r="Q15">
         <v>50</v>
@@ -2044,17 +2059,17 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>75</v>
+      <c r="A16" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -2069,25 +2084,25 @@
         <v>500</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K16">
         <v>611</v>
       </c>
       <c r="L16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N16" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O16" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" t="s">
         <v>69</v>
-      </c>
-      <c r="P16" t="s">
-        <v>76</v>
       </c>
       <c r="Q16">
         <v>-50</v>
@@ -2100,17 +2115,17 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>75</v>
+      <c r="A17" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -2125,25 +2140,25 @@
         <v>500</v>
       </c>
       <c r="J17" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="K17">
         <v>613</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="N17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="O17" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" t="s">
         <v>69</v>
-      </c>
-      <c r="P17" t="s">
-        <v>76</v>
       </c>
       <c r="Q17">
         <v>-50</v>
@@ -2156,7 +2171,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2196,7 +2213,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -2283,7 +2300,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -2330,7 +2347,7 @@
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2377,7 +2394,7 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -2424,7 +2441,7 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2471,7 +2488,7 @@
         <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -2509,7 +2526,7 @@
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -2576,7 +2593,7 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -2623,7 +2640,7 @@
         <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2670,7 +2687,7 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -2717,7 +2734,7 @@
         <v>35</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -2764,7 +2781,7 @@
         <v>36</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -2802,7 +2819,7 @@
         <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -2882,7 +2899,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2919,7 +2936,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>

--- a/templates/AutomationOrg/AR.xlsx
+++ b/templates/AutomationOrg/AR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashok\Provar\RSTK_Automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB59C586-F820-490B-8F7D-548308BA1561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E95AB7B-0897-45B7-8E2E-B7C2EDC57FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21795" yWindow="1365" windowWidth="27270" windowHeight="10890" tabRatio="761" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1020" windowWidth="29040" windowHeight="15840" tabRatio="761" firstSheet="9" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="100">
   <si>
     <t>API Mode</t>
   </si>
@@ -1189,984 +1189,1036 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3114FEA7-B434-48B1-B4F6-7B4F3BE8673D}">
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>49</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>50</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>96</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>52</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>55</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>57</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>58</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>60</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>500</v>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H2">
-        <v>500</v>
-      </c>
-      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+      <c r="K2" t="s">
         <v>97</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>651</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>61</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>62</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>63</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>64</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>65</v>
       </c>
-      <c r="Q2">
-        <v>500</v>
-      </c>
       <c r="R2">
         <v>500</v>
       </c>
       <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>66</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>99</v>
       </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>500</v>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H3">
-        <v>500</v>
-      </c>
-      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>500</v>
+      </c>
+      <c r="K3" t="s">
         <v>97</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>601</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>64</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>65</v>
       </c>
-      <c r="Q3">
-        <v>500</v>
-      </c>
       <c r="R3">
         <v>500</v>
       </c>
       <c r="S3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>67</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>99</v>
       </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>500</v>
+      <c r="E4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>500</v>
-      </c>
-      <c r="J4" t="s">
+        <v>500</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>500</v>
+      </c>
+      <c r="K4" t="s">
         <v>98</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>611</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>61</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>62</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>63</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>64</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>65</v>
-      </c>
-      <c r="Q4">
-        <v>-500</v>
       </c>
       <c r="R4">
         <v>-500</v>
       </c>
       <c r="S4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+        <v>-500</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>68</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>99</v>
       </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>500</v>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>500</v>
-      </c>
-      <c r="J5" t="s">
+        <v>500</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>500</v>
+      </c>
+      <c r="K5" t="s">
         <v>98</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>613</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>61</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>62</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>63</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>64</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>65</v>
-      </c>
-      <c r="Q5">
-        <v>-500</v>
       </c>
       <c r="R5">
         <v>-500</v>
       </c>
       <c r="S5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+        <v>-500</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>99</v>
       </c>
-      <c r="D6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>50</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="H6">
-        <v>500</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="I6">
+        <v>500</v>
+      </c>
+      <c r="K6" t="s">
         <v>97</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>651</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>61</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>62</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>63</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>64</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>65</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>50</v>
       </c>
-      <c r="R6">
-        <v>500</v>
-      </c>
       <c r="S6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>66</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>99</v>
       </c>
-      <c r="D7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="E7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>50</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="H7">
-        <v>500</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="I7">
+        <v>500</v>
+      </c>
+      <c r="K7" t="s">
         <v>97</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>601</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>61</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>62</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>63</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>64</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>65</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>50</v>
       </c>
-      <c r="R7">
-        <v>500</v>
-      </c>
       <c r="S7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>67</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>99</v>
       </c>
-      <c r="D8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>50</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8">
-        <v>500</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="J8">
+        <v>500</v>
+      </c>
+      <c r="K8" t="s">
         <v>98</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>611</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>61</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>62</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>63</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>64</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>65</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-50</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>-500</v>
       </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="T8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>99</v>
       </c>
-      <c r="D9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9">
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>50</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>10</v>
       </c>
-      <c r="I9">
-        <v>500</v>
-      </c>
-      <c r="J9" t="s">
+      <c r="J9">
+        <v>500</v>
+      </c>
+      <c r="K9" t="s">
         <v>98</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>613</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>61</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>62</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>63</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>64</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>65</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-50</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-500</v>
       </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="T9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>60</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>99</v>
       </c>
-      <c r="D10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>500</v>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H10">
-        <v>500</v>
-      </c>
-      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>500</v>
+      </c>
+      <c r="K10" t="s">
         <v>97</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>651</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>61</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>62</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>63</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>64</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>69</v>
       </c>
-      <c r="Q10">
-        <v>500</v>
-      </c>
       <c r="R10">
         <v>500</v>
       </c>
       <c r="S10">
+        <v>500</v>
+      </c>
+      <c r="T10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>66</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>99</v>
       </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>500</v>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H11">
-        <v>500</v>
-      </c>
-      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>500</v>
+      </c>
+      <c r="K11" t="s">
         <v>97</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>601</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>61</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>62</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>63</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>64</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>69</v>
       </c>
-      <c r="Q11">
-        <v>500</v>
-      </c>
       <c r="R11">
         <v>500</v>
       </c>
       <c r="S11">
+        <v>500</v>
+      </c>
+      <c r="T11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>99</v>
       </c>
-      <c r="D12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>500</v>
+      <c r="E12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>500</v>
-      </c>
-      <c r="J12" t="s">
+        <v>500</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>500</v>
+      </c>
+      <c r="K12" t="s">
         <v>98</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>611</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>61</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>62</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>63</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>64</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>69</v>
-      </c>
-      <c r="Q12">
-        <v>-500</v>
       </c>
       <c r="R12">
         <v>-500</v>
       </c>
       <c r="S12">
+        <v>-500</v>
+      </c>
+      <c r="T12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>68</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>99</v>
       </c>
-      <c r="D13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>500</v>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>500</v>
-      </c>
-      <c r="J13" t="s">
+        <v>500</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>500</v>
+      </c>
+      <c r="K13" t="s">
         <v>98</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>613</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>61</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>62</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>63</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>64</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13">
-        <v>-500</v>
       </c>
       <c r="R13">
         <v>-500</v>
       </c>
       <c r="S13">
+        <v>-500</v>
+      </c>
+      <c r="T13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>60</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>99</v>
       </c>
-      <c r="D14" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="E14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>50</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>10</v>
       </c>
-      <c r="H14">
-        <v>500</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="I14">
+        <v>500</v>
+      </c>
+      <c r="K14" t="s">
         <v>97</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>651</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>61</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>62</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>63</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>64</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>69</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>50</v>
       </c>
-      <c r="R14">
-        <v>500</v>
-      </c>
       <c r="S14">
+        <v>500</v>
+      </c>
+      <c r="T14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>99</v>
       </c>
-      <c r="D15" t="s">
-        <v>81</v>
-      </c>
-      <c r="E15" t="b">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="E15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>50</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>10</v>
       </c>
-      <c r="H15">
-        <v>500</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="I15">
+        <v>500</v>
+      </c>
+      <c r="K15" t="s">
         <v>97</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>601</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>61</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>62</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>63</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>64</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>69</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>50</v>
       </c>
-      <c r="R15">
-        <v>500</v>
-      </c>
       <c r="S15">
+        <v>500</v>
+      </c>
+      <c r="T15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>67</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>99</v>
       </c>
-      <c r="D16" t="s">
-        <v>81</v>
-      </c>
-      <c r="E16" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>50</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>10</v>
       </c>
-      <c r="I16">
-        <v>500</v>
-      </c>
-      <c r="J16" t="s">
+      <c r="J16">
+        <v>500</v>
+      </c>
+      <c r="K16" t="s">
         <v>98</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>611</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>61</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>62</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>63</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>64</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>69</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-50</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-500</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>68</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>99</v>
       </c>
-      <c r="D17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="E17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>50</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>10</v>
       </c>
-      <c r="I17">
-        <v>500</v>
-      </c>
-      <c r="J17" t="s">
+      <c r="J17">
+        <v>500</v>
+      </c>
+      <c r="K17" t="s">
         <v>98</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>613</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>61</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>62</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>63</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>64</v>
       </c>
-      <c r="P17" t="s">
+      <c r="Q17" t="s">
         <v>69</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-50</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-500</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>2</v>
       </c>
     </row>
